--- a/studentData.xlsx
+++ b/studentData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myerauedu-my.sharepoint.com/personal/bharada3_my_erau_edu/Documents/Desktop/Projects/ClassConnect/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myerauedu-my.sharepoint.com/personal/bharada3_my_erau_edu/Documents/Desktop/Projects/ClassConnect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{2431A137-A23A-422C-B7C6-1FF3791C8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24EEB20C-57BF-4252-98CB-FF8A4365308A}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{2431A137-A23A-422C-B7C6-1FF3791C8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BB1232E-BC38-4067-9C53-C898406CD298}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2AA5E8F-2EFA-474D-A042-FA8276975C4D}"/>
   </bookViews>
@@ -38,30 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t>asds</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>gfd</t>
-  </si>
-  <si>
-    <t>ghj</t>
-  </si>
-  <si>
-    <t>rsd</t>
-  </si>
-  <si>
-    <t>hgff</t>
-  </si>
-  <si>
-    <t>fgd</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -69,6 +45,30 @@
   </si>
   <si>
     <t>studentID</t>
+  </si>
+  <si>
+    <t>neel</t>
+  </si>
+  <si>
+    <t>arjun</t>
+  </si>
+  <si>
+    <t>nico</t>
+  </si>
+  <si>
+    <t>collin</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -124,6 +124,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFBF43D-37D2-4118-9DED-C926D51FADE0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,24 +462,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>2345679</v>
+        <v>1234567</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,32 +487,32 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>1234567</v>
+        <v>2345678</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>4567890</v>
+        <v>3456789</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>6789123</v>
+        <v>4567890</v>
       </c>
     </row>
   </sheetData>
